--- a/excel/活動影片.xlsx
+++ b/excel/活動影片.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>img</t>
   </si>
@@ -25,7 +25,7 @@
     <t>subTitle</t>
   </si>
   <si>
-    <t>resultVideo-default</t>
+    <t>eventsVideo</t>
   </si>
   <si>
     <r>
@@ -35,36 +35,14 @@
         <color indexed="10"/>
         <rFont val="新細明體"/>
       </rPr>
-      <t>https://www.youtube.com/watch?v=vl2RUVSdC5E</t>
+      <t>https://www.youtube.com/watch?v=noVaFVEQp0U</t>
     </r>
   </si>
   <si>
-    <t>大港青年實習站</t>
+    <t>標題</t>
   </si>
   <si>
-    <t>2022實習成果</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="新細明體"/>
-      </rPr>
-      <t>https://www.youtube.com/watch?v=W0iV1lt-xeM</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="12"/>
-        <color indexed="10"/>
-        <rFont val="新細明體"/>
-      </rPr>
-      <t>https://www.youtube.com/watch?v=BYgxdQZxeNU</t>
-    </r>
+    <t>副標題</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1217,7 @@
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="65.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.5625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.8438" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.3516" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.3516" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.8516" style="1" customWidth="1"/>
@@ -1278,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s" s="3">
         <v>6</v>
@@ -1292,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s" s="3">
         <v>6</v>
@@ -1303,9 +1281,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display="https://www.youtube.com/watch?v=vl2RUVSdC5E"/>
-    <hyperlink ref="B3" r:id="rId2" location="" tooltip="" display="https://www.youtube.com/watch?v=W0iV1lt-xeM"/>
-    <hyperlink ref="B4" r:id="rId3" location="" tooltip="" display="https://www.youtube.com/watch?v=BYgxdQZxeNU"/>
+    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display="https://www.youtube.com/watch?v=noVaFVEQp0U"/>
+    <hyperlink ref="B3" r:id="rId2" location="" tooltip="" display="https://www.youtube.com/watch?v=noVaFVEQp0U"/>
+    <hyperlink ref="B4" r:id="rId3" location="" tooltip="" display="https://www.youtube.com/watch?v=noVaFVEQp0U"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
